--- a/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10195</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5399</v>
+        <v>5875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17467</v>
+        <v>17710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01763187112739617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009337553231324788</v>
+        <v>0.01016044158047212</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0302098688654871</v>
+        <v>0.03062958595132469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -762,19 +762,19 @@
         <v>45992</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36957</v>
+        <v>35145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57306</v>
+        <v>56622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05626398588946899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04521061479807973</v>
+        <v>0.04299486555488481</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07010433760451772</v>
+        <v>0.06926767270863687</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -783,19 +783,19 @@
         <v>56186</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44990</v>
+        <v>45023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69761</v>
+        <v>71159</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04025919261769055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03223653216863489</v>
+        <v>0.03226019410407468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04998596151324017</v>
+        <v>0.05098748301304633</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9337</v>
+        <v>9527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24855</v>
+        <v>23801</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0262973963161454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0161492818760663</v>
+        <v>0.0164769958253244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04298736177697127</v>
+        <v>0.04116434373557104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -833,19 +833,19 @@
         <v>53127</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43701</v>
+        <v>43559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64566</v>
+        <v>64885</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06499255238641038</v>
+        <v>0.06499255238641037</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05346076913959346</v>
+        <v>0.05328820988521299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07898602154448824</v>
+        <v>0.07937609844266372</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -854,7 +854,7 @@
         <v>68332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>57111</v>
+        <v>56486</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>83929</v>
@@ -863,10 +863,10 @@
         <v>0.04896164190330628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04092145941277225</v>
+        <v>0.04047385079667496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06013711480490887</v>
+        <v>0.06013763444134882</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>101826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86002</v>
+        <v>86348</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121683</v>
+        <v>120884</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1761122305284514</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.148744263676557</v>
+        <v>0.1493427928609134</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2104562668143129</v>
+        <v>0.2090740673990112</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>375</v>
@@ -904,19 +904,19 @@
         <v>214697</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>193702</v>
+        <v>195129</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>234025</v>
+        <v>235753</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.262647624112377</v>
+        <v>0.2626476241123771</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2369637092312689</v>
+        <v>0.2387102429268209</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2862932537151899</v>
+        <v>0.2884072185306042</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>498</v>
@@ -925,19 +925,19 @@
         <v>316522</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>291792</v>
+        <v>288895</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>344605</v>
+        <v>345437</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2267971123417291</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2090768039304464</v>
+        <v>0.207001412193667</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2469190243216225</v>
+        <v>0.2475155870473498</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>450962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>430053</v>
+        <v>430017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>468760</v>
+        <v>467240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7799585020280072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.743795087231074</v>
+        <v>0.7437338161807829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.810741227893953</v>
+        <v>0.8081116390863683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>874</v>
@@ -975,19 +975,19 @@
         <v>503616</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>482207</v>
+        <v>481285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>525466</v>
+        <v>524917</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6160958376117436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5899047848494112</v>
+        <v>0.5887772851583869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6428251341707623</v>
+        <v>0.6421543173551302</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1407</v>
@@ -996,19 +996,19 @@
         <v>954578</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>922016</v>
+        <v>924537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>984191</v>
+        <v>983820</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6839820531372741</v>
+        <v>0.683982053137274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6606499209676341</v>
+        <v>0.6624564634862304</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7052003612861196</v>
+        <v>0.7049343293004476</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>27327</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17846</v>
+        <v>17216</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>37848</v>
+        <v>39933</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01231579357494638</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008042778270861419</v>
+        <v>0.007758979156544361</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0170572818673878</v>
+        <v>0.01799685660930666</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>122</v>
@@ -1121,19 +1121,19 @@
         <v>90277</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74416</v>
+        <v>73785</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>109610</v>
+        <v>109517</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04178829387988096</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03444659012004508</v>
+        <v>0.03415449419969041</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0507373107673972</v>
+        <v>0.05069434787239697</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>148</v>
@@ -1142,19 +1142,19 @@
         <v>117604</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>100296</v>
+        <v>97199</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>141964</v>
+        <v>138532</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.02685500364070799</v>
+        <v>0.026855003640708</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02290268857341982</v>
+        <v>0.02219540851916662</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03241749446943609</v>
+        <v>0.03163390963699905</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>56347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41805</v>
+        <v>41050</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74986</v>
+        <v>74654</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02539403897663655</v>
+        <v>0.02539403897663656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01884051912341484</v>
+        <v>0.0185002960327462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03379444731097779</v>
+        <v>0.03364480641060657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>169</v>
@@ -1192,19 +1192,19 @@
         <v>117129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98773</v>
+        <v>100304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137146</v>
+        <v>137255</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05421774639944661</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04572096931152071</v>
+        <v>0.04642969622569443</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06348381082302022</v>
+        <v>0.06353403851158231</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>222</v>
@@ -1213,19 +1213,19 @@
         <v>173475</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149128</v>
+        <v>150319</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200406</v>
+        <v>199796</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03961319014326228</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03405346156143495</v>
+        <v>0.03432554234206384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04576277879117443</v>
+        <v>0.04562359008194344</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>356143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>316532</v>
+        <v>319460</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>394698</v>
+        <v>401809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1605048096907446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1426532225531851</v>
+        <v>0.1439728948925187</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1778806904058606</v>
+        <v>0.1810855581685423</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>755</v>
@@ -1263,19 +1263,19 @@
         <v>536846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>501047</v>
+        <v>499323</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>580630</v>
+        <v>573627</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2485009198186358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2319297897588637</v>
+        <v>0.2311322105173147</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2687681916482153</v>
+        <v>0.2655267765159816</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1074</v>
@@ -1284,19 +1284,19 @@
         <v>892989</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>832594</v>
+        <v>842413</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>942395</v>
+        <v>956724</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2039145617267839</v>
+        <v>0.203914561726784</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1901234481139708</v>
+        <v>0.1923654860319893</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2151965490224194</v>
+        <v>0.2184687068558279</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1779075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1736038</v>
+        <v>1733985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1821978</v>
+        <v>1822764</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8017853577576723</v>
+        <v>0.8017853577576727</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7823894603161466</v>
+        <v>0.78146450009323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8211207880808417</v>
+        <v>0.8214747716678241</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1862</v>
@@ -1334,19 +1334,19 @@
         <v>1416086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1370413</v>
+        <v>1375508</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1455572</v>
+        <v>1455981</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6554930399020367</v>
+        <v>0.6554930399020366</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6343516093384526</v>
+        <v>0.6367098806262795</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6737706408624458</v>
+        <v>0.6739603476980975</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3444</v>
@@ -1355,19 +1355,19 @@
         <v>3195161</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3139765</v>
+        <v>3128167</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3257762</v>
+        <v>3250958</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7296172444892457</v>
+        <v>0.7296172444892459</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7169674967101084</v>
+        <v>0.7143192052901663</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7439121435128839</v>
+        <v>0.7423585732109871</v>
       </c>
     </row>
     <row r="13">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8173</v>
+        <v>8527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003356250921572953</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01149596541340769</v>
+        <v>0.01199387517246934</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1480,19 +1480,19 @@
         <v>27429</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17288</v>
+        <v>18853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40130</v>
+        <v>40258</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0374506391548823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02360468698025226</v>
+        <v>0.02574083360604281</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0547920636384909</v>
+        <v>0.05496635223802759</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1501,19 +1501,19 @@
         <v>29815</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20112</v>
+        <v>19971</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42684</v>
+        <v>41678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02065655132300898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01393426433503062</v>
+        <v>0.01383650673414078</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02957196532620024</v>
+        <v>0.02887524953912055</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>20315</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12074</v>
+        <v>11235</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34392</v>
+        <v>33442</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02857390352906669</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01698239507360516</v>
+        <v>0.01580216790696296</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0483732135699485</v>
+        <v>0.04703644320371671</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -1551,19 +1551,19 @@
         <v>34177</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25470</v>
+        <v>24119</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47001</v>
+        <v>45588</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0466638315174149</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03477599725183923</v>
+        <v>0.03293086656793996</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06417392351655621</v>
+        <v>0.06224476942589744</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>63</v>
@@ -1572,19 +1572,19 @@
         <v>54492</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41140</v>
+        <v>41590</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>69890</v>
+        <v>70171</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03775316160218893</v>
+        <v>0.03775316160218894</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02850262551179748</v>
+        <v>0.02881402011440813</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04842115357398002</v>
+        <v>0.04861544522862685</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>126537</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104273</v>
+        <v>105811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>151380</v>
+        <v>152190</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1779762329931208</v>
+        <v>0.1779762329931209</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1466618069896856</v>
+        <v>0.1488254833837057</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2129184899843695</v>
+        <v>0.2140580408187629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>259</v>
@@ -1622,19 +1622,19 @@
         <v>196575</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175210</v>
+        <v>177464</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219459</v>
+        <v>221386</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2683961359610529</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2392257543770968</v>
+        <v>0.2423029642846168</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2996419306443855</v>
+        <v>0.30227236079856</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>367</v>
@@ -1643,19 +1643,19 @@
         <v>323111</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>291992</v>
+        <v>291230</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355962</v>
+        <v>358236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2238574341136516</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2022972867368601</v>
+        <v>0.2017692402607968</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2466171696754898</v>
+        <v>0.2481921680803675</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>561737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>533958</v>
+        <v>534157</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>584563</v>
+        <v>585418</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7900936125562394</v>
+        <v>0.7900936125562396</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.751022779417002</v>
+        <v>0.7513014254179219</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8221993260940339</v>
+        <v>0.823402036104241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>664</v>
@@ -1693,19 +1693,19 @@
         <v>474224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>450313</v>
+        <v>450816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>499550</v>
+        <v>497360</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6474893933666499</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6148415845050198</v>
+        <v>0.6155280885122417</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6820681659627325</v>
+        <v>0.6790780747003278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1217</v>
@@ -1714,19 +1714,19 @@
         <v>1035961</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1003184</v>
+        <v>997832</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1069848</v>
+        <v>1070593</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7177328529611505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6950242831007881</v>
+        <v>0.6913163670934483</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7412103090956783</v>
+        <v>0.7417263062791501</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>39908</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28142</v>
+        <v>28909</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55362</v>
+        <v>54259</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01137614992353945</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00802217356084662</v>
+        <v>0.008240624406510206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01578137906432545</v>
+        <v>0.01546711676056011</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>228</v>
@@ -1839,19 +1839,19 @@
         <v>163698</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>141898</v>
+        <v>141891</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>187601</v>
+        <v>191828</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04412133029810181</v>
+        <v>0.04412133029810182</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03824568501100514</v>
+        <v>0.03824370989806928</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05056390394768905</v>
+        <v>0.05170333165332143</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>270</v>
@@ -1860,19 +1860,19 @@
         <v>203606</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>176408</v>
+        <v>178788</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>233548</v>
+        <v>233911</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02820719420896993</v>
+        <v>0.02820719420896992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02443917654803132</v>
+        <v>0.02476901494350826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03235524855499862</v>
+        <v>0.03240556847285662</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>91867</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73793</v>
+        <v>74094</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113266</v>
+        <v>116874</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02618738853129989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02103520520489989</v>
+        <v>0.02112124873670278</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03228728362585166</v>
+        <v>0.03331593882612997</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>311</v>
@@ -1910,19 +1910,19 @@
         <v>204432</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>181977</v>
+        <v>180104</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230384</v>
+        <v>228964</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05510049293182673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04904810408493347</v>
+        <v>0.04854322516343258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06209530360871218</v>
+        <v>0.06171258081069635</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -1931,19 +1931,19 @@
         <v>296299</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>266063</v>
+        <v>265059</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>329247</v>
+        <v>331063</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04104874324145992</v>
+        <v>0.04104874324145991</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03685988363297867</v>
+        <v>0.03672082398120615</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04561322867797057</v>
+        <v>0.04586484905570311</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>584505</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>537801</v>
+        <v>541320</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>635562</v>
+        <v>634845</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1666180998193536</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1533045704161592</v>
+        <v>0.1543076885436171</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1811722358542566</v>
+        <v>0.1809679914643204</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1389</v>
@@ -1981,19 +1981,19 @@
         <v>948117</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>901718</v>
+        <v>900022</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>995267</v>
+        <v>994429</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2555451518740109</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2430394027142931</v>
+        <v>0.2425821774196501</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2682535069460095</v>
+        <v>0.2680276417840094</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1939</v>
@@ -2002,19 +2002,19 @@
         <v>1532622</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1467347</v>
+        <v>1466786</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1604667</v>
+        <v>1597112</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.212326663161623</v>
+        <v>0.2123266631616229</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2032834973966861</v>
+        <v>0.2032057841485992</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2223076521726623</v>
+        <v>0.2212609941096619</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2791774</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2740324</v>
+        <v>2735349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2846069</v>
+        <v>2840159</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.795818361725807</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7811521329615086</v>
+        <v>0.7797338767429226</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8112957551032204</v>
+        <v>0.8096110746961034</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3400</v>
@@ -2052,19 +2052,19 @@
         <v>2393927</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2339100</v>
+        <v>2340976</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2443025</v>
+        <v>2443770</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6452330248960605</v>
+        <v>0.6452330248960606</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6304555843500999</v>
+        <v>0.6309612305038703</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6584663574744439</v>
+        <v>0.6586672437347719</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6068</v>
@@ -2073,19 +2073,19 @@
         <v>5185701</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5108889</v>
+        <v>5119621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5258476</v>
+        <v>5261553</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7184173993879474</v>
+        <v>0.7184173993879471</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7077760232107744</v>
+        <v>0.7092629145396506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.728499509971795</v>
+        <v>0.7289258555916122</v>
       </c>
     </row>
     <row r="23">
